--- a/data/trans_orig/SE_ADU-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/SE_ADU-Dificultad-trans_orig.xlsx
@@ -770,19 +770,19 @@
         <v>922333</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>881562</v>
+        <v>886200</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>956923</v>
+        <v>963170</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6122460808522876</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5851822840598561</v>
+        <v>0.5882609695697211</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6352071140311634</v>
+        <v>0.6393541990149799</v>
       </c>
     </row>
     <row r="5">
@@ -825,19 +825,19 @@
         <v>584141</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>549551</v>
+        <v>543304</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>624912</v>
+        <v>620274</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3877539191477125</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3647928859688365</v>
+        <v>0.3606458009850202</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4148177159401439</v>
+        <v>0.411739030430279</v>
       </c>
     </row>
     <row r="6">
@@ -955,19 +955,19 @@
         <v>1057538</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1013706</v>
+        <v>1014035</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1101373</v>
+        <v>1107691</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4952337444864287</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.47470758846466</v>
+        <v>0.4748618903388187</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5157612720941694</v>
+        <v>0.5187198973763985</v>
       </c>
     </row>
     <row r="8">
@@ -1010,19 +1010,19 @@
         <v>1077894</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1034059</v>
+        <v>1027741</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1121726</v>
+        <v>1121397</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5047662555135712</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4842387279058303</v>
+        <v>0.4812801026236014</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5252924115353399</v>
+        <v>0.5251381096611811</v>
       </c>
     </row>
     <row r="9">
@@ -1140,19 +1140,19 @@
         <v>993940</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>945859</v>
+        <v>947821</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1044337</v>
+        <v>1041000</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4698292066787397</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4471017440291027</v>
+        <v>0.4480293183814077</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4936518124852919</v>
+        <v>0.4920742123967346</v>
       </c>
     </row>
     <row r="11">
@@ -1195,19 +1195,19 @@
         <v>1121594</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1071197</v>
+        <v>1074534</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1169675</v>
+        <v>1167713</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5301707933212603</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5063481875147081</v>
+        <v>0.5079257876032656</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5528982559708973</v>
+        <v>0.5519706816185923</v>
       </c>
     </row>
     <row r="12">
@@ -1325,19 +1325,19 @@
         <v>341158</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>314202</v>
+        <v>315319</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>372837</v>
+        <v>371492</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4327453213447285</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3985519668094041</v>
+        <v>0.3999688236189775</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4729281374947111</v>
+        <v>0.4712221092059843</v>
       </c>
     </row>
     <row r="14">
@@ -1380,19 +1380,19 @@
         <v>447200</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>415521</v>
+        <v>416866</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>474156</v>
+        <v>473039</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5672546786552716</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5270718625052889</v>
+        <v>0.5287778907940158</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.601448033190596</v>
+        <v>0.6000311763810225</v>
       </c>
     </row>
     <row r="15">
@@ -1510,19 +1510,19 @@
         <v>3314969</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3231267</v>
+        <v>3240310</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3390808</v>
+        <v>3396908</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5064269875083992</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4936398613609845</v>
+        <v>0.4950213828811227</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5180128626636701</v>
+        <v>0.5189448262837385</v>
       </c>
     </row>
     <row r="17">
@@ -1565,19 +1565,19 @@
         <v>3230829</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3154990</v>
+        <v>3148890</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3314531</v>
+        <v>3305488</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4935730124916007</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4819871373363299</v>
+        <v>0.4810551737162614</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5063601386390155</v>
+        <v>0.5049786171188771</v>
       </c>
     </row>
     <row r="18">
@@ -1935,19 +1935,19 @@
         <v>1119928</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1072531</v>
+        <v>1070879</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1163139</v>
+        <v>1166144</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5175596961310337</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4956557799443295</v>
+        <v>0.4948921300270244</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5375289835405908</v>
+        <v>0.5389174762894637</v>
       </c>
     </row>
     <row r="5">
@@ -1990,19 +1990,19 @@
         <v>1043935</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1000724</v>
+        <v>997719</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1091332</v>
+        <v>1092984</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4824403038689664</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.462471016459409</v>
+        <v>0.4610825237105363</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5043442200556705</v>
+        <v>0.5051078699729756</v>
       </c>
     </row>
     <row r="6">
@@ -2120,19 +2120,19 @@
         <v>1094262</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1043225</v>
+        <v>1047068</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1140890</v>
+        <v>1138678</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5282883683392161</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5036488270959389</v>
+        <v>0.5055040695877163</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.550799217082181</v>
+        <v>0.5497316781340649</v>
       </c>
     </row>
     <row r="8">
@@ -2175,19 +2175,19 @@
         <v>977073</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>930445</v>
+        <v>932657</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1028110</v>
+        <v>1024267</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4717116316607838</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4492007829178189</v>
+        <v>0.4502683218659351</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4963511729040606</v>
+        <v>0.4944959304122835</v>
       </c>
     </row>
     <row r="9">
@@ -2305,19 +2305,19 @@
         <v>875796</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>833432</v>
+        <v>830558</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>917409</v>
+        <v>918882</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4973538337044949</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4732960975882313</v>
+        <v>0.4716637984209586</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5209854655582605</v>
+        <v>0.5218216962349799</v>
       </c>
     </row>
     <row r="11">
@@ -2360,19 +2360,19 @@
         <v>885115</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>843502</v>
+        <v>842029</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>927479</v>
+        <v>930353</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5026461662955051</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4790145344417395</v>
+        <v>0.47817830376502</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5267039024117687</v>
+        <v>0.5283362015790414</v>
       </c>
     </row>
     <row r="12">
@@ -2490,19 +2490,19 @@
         <v>452735</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>419794</v>
+        <v>421170</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>486258</v>
+        <v>483750</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4736925743583432</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4392262622502308</v>
+        <v>0.4406659309886117</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5087666357365898</v>
+        <v>0.5061427285174523</v>
       </c>
     </row>
     <row r="14">
@@ -2545,19 +2545,19 @@
         <v>503023</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>469500</v>
+        <v>472008</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>535964</v>
+        <v>534588</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5263074256416568</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4912333642634103</v>
+        <v>0.4938572714825478</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5607737377497695</v>
+        <v>0.5593340690113884</v>
       </c>
     </row>
     <row r="15">
@@ -2675,19 +2675,19 @@
         <v>3542722</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3460241</v>
+        <v>3459300</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3625037</v>
+        <v>3631672</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5096072422865867</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4977427516917379</v>
+        <v>0.4976073438902489</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5214479489750811</v>
+        <v>0.5224023494158045</v>
       </c>
     </row>
     <row r="17">
@@ -2730,19 +2730,19 @@
         <v>3409145</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3326830</v>
+        <v>3320195</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3491626</v>
+        <v>3492567</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4903927577134133</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4785520510249189</v>
+        <v>0.4775976505841956</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5022572483082621</v>
+        <v>0.502392656109751</v>
       </c>
     </row>
     <row r="18">
@@ -3100,19 +3100,19 @@
         <v>1259561</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1207378</v>
+        <v>1213127</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1308409</v>
+        <v>1309841</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5275519044479914</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5056957780056149</v>
+        <v>0.5081034828729666</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5480114937669338</v>
+        <v>0.548611268181844</v>
       </c>
     </row>
     <row r="5">
@@ -3155,19 +3155,19 @@
         <v>1127997</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1079149</v>
+        <v>1077717</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1180180</v>
+        <v>1174431</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4724480955520086</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4519885062330662</v>
+        <v>0.4513887318181559</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.494304221994385</v>
+        <v>0.4918965171270334</v>
       </c>
     </row>
     <row r="6">
@@ -3285,19 +3285,19 @@
         <v>1006475</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>963650</v>
+        <v>958834</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1051665</v>
+        <v>1048563</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5254922241698194</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.503132787327468</v>
+        <v>0.5006180298304636</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5490862873718823</v>
+        <v>0.5474667323277534</v>
       </c>
     </row>
     <row r="8">
@@ -3340,19 +3340,19 @@
         <v>908825</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>863635</v>
+        <v>866737</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>951650</v>
+        <v>956466</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4745077758301806</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4509137126281175</v>
+        <v>0.4525332676722466</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.496867212672532</v>
+        <v>0.4993819701695364</v>
       </c>
     </row>
     <row r="9">
@@ -3470,19 +3470,19 @@
         <v>771059</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>731340</v>
+        <v>728295</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>813719</v>
+        <v>811484</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4834775513311989</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4585726833238549</v>
+        <v>0.4566633828449822</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5102266738485846</v>
+        <v>0.5088253349688325</v>
       </c>
     </row>
     <row r="11">
@@ -3525,19 +3525,19 @@
         <v>823759</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>781099</v>
+        <v>783334</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>863478</v>
+        <v>866523</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5165224486688011</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4897733261514156</v>
+        <v>0.4911746650311677</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5414273166761452</v>
+        <v>0.5433366171550181</v>
       </c>
     </row>
     <row r="12">
@@ -3655,19 +3655,19 @@
         <v>489697</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>457121</v>
+        <v>455984</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>519082</v>
+        <v>522197</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4914675954445051</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4587733882028284</v>
+        <v>0.4576324426710032</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5209587736854698</v>
+        <v>0.5240846411659841</v>
       </c>
     </row>
     <row r="14">
@@ -3710,19 +3710,19 @@
         <v>506701</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>477316</v>
+        <v>474201</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>539277</v>
+        <v>540414</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5085324045554949</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4790412263145303</v>
+        <v>0.475915358834016</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5412266117971719</v>
+        <v>0.5423675573289973</v>
       </c>
     </row>
     <row r="15">
@@ -3840,19 +3840,19 @@
         <v>3526793</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3446468</v>
+        <v>3431493</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3613182</v>
+        <v>3609175</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5115686378464237</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4999174133192544</v>
+        <v>0.4977452915812558</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5240995748506838</v>
+        <v>0.5235183538415442</v>
       </c>
     </row>
     <row r="17">
@@ -3895,19 +3895,19 @@
         <v>3367282</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3280893</v>
+        <v>3284900</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3447607</v>
+        <v>3462582</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4884313621535764</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4759004251493162</v>
+        <v>0.4764816461584558</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5000825866807456</v>
+        <v>0.5022547084187442</v>
       </c>
     </row>
     <row r="18">
@@ -4265,19 +4265,19 @@
         <v>623580</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>587794</v>
+        <v>588867</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>655951</v>
+        <v>658399</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5556173695371023</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5237316285251157</v>
+        <v>0.5246876163215168</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5844596671496154</v>
+        <v>0.5866409718462678</v>
       </c>
     </row>
     <row r="5">
@@ -4320,19 +4320,19 @@
         <v>498740</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>466369</v>
+        <v>463921</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>534526</v>
+        <v>533453</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4443826304628978</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4155403328503847</v>
+        <v>0.4133590281537319</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4762683714748843</v>
+        <v>0.4753123836784829</v>
       </c>
     </row>
     <row r="6">
@@ -4450,19 +4450,19 @@
         <v>1115849</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1066523</v>
+        <v>1070921</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1160914</v>
+        <v>1163920</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5375032959275148</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5137426599363151</v>
+        <v>0.5158613433413992</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5592111114784187</v>
+        <v>0.5606587176934112</v>
       </c>
     </row>
     <row r="8">
@@ -4505,19 +4505,19 @@
         <v>960137</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>915072</v>
+        <v>912066</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1009463</v>
+        <v>1005065</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4624967040724851</v>
+        <v>0.4624967040724852</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4407888885215813</v>
+        <v>0.4393412823065886</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.486257340063685</v>
+        <v>0.484138656658601</v>
       </c>
     </row>
     <row r="9">
@@ -4635,19 +4635,19 @@
         <v>1047642</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1001267</v>
+        <v>1007123</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1096159</v>
+        <v>1091953</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5002775286914745</v>
+        <v>0.5002775286914746</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4781321549819786</v>
+        <v>0.4809286523207336</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5234458374270397</v>
+        <v>0.521437157424872</v>
       </c>
     </row>
     <row r="11">
@@ -4690,19 +4690,19 @@
         <v>1046479</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>997962</v>
+        <v>1002168</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1092854</v>
+        <v>1086998</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4997224713085255</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4765541625729605</v>
+        <v>0.478562842575128</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5218678450180216</v>
+        <v>0.5190713476792663</v>
       </c>
     </row>
     <row r="12">
@@ -4820,19 +4820,19 @@
         <v>910345</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>866179</v>
+        <v>866387</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>955491</v>
+        <v>957242</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4826154111313923</v>
+        <v>0.4826154111313922</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4592010519374327</v>
+        <v>0.4593111162050964</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5065496154143535</v>
+        <v>0.5074775327420864</v>
       </c>
     </row>
     <row r="14">
@@ -4875,19 +4875,19 @@
         <v>975929</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>930783</v>
+        <v>929032</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1020095</v>
+        <v>1019887</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5173845888686079</v>
+        <v>0.5173845888686077</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4934503845856469</v>
+        <v>0.4925224672579135</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5407989480625673</v>
+        <v>0.5406888837949035</v>
       </c>
     </row>
     <row r="15">
@@ -5005,19 +5005,19 @@
         <v>3697416</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3608705</v>
+        <v>3614090</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3778519</v>
+        <v>3785639</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5150536804402835</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5026961674835997</v>
+        <v>0.5034462252401825</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5263513475228055</v>
+        <v>0.527343227406227</v>
       </c>
     </row>
     <row r="17">
@@ -5060,19 +5060,19 @@
         <v>3481285</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3400182</v>
+        <v>3393062</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3569996</v>
+        <v>3564611</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4849463195597165</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4736486524771945</v>
+        <v>0.4726567725937731</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4973038325164003</v>
+        <v>0.4965537747598177</v>
       </c>
     </row>
     <row r="18">
